--- a/public/templates/AssignmentGradeTemplate.xlsx
+++ b/public/templates/AssignmentGradeTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebLearning\Gradebook\Gradebook-Frontend\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minht\WebstormProjects\Gradebook-Frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2178C1-0375-40FA-972A-BF0299D7AA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E88B81-1EC4-4C3C-ABA5-FC1B4C0BA960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -377,16 +377,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.296875" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -397,6 +397,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>18120615</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
